--- a/ig/32-informations-manquantes-sur-les-contacts/CodeSystem-eclaire-type-contact-code-system.xlsx
+++ b/ig/32-informations-manquantes-sur-les-contacts/CodeSystem-eclaire-type-contact-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T15:26:31+00:00</t>
+    <t>2023-09-18T08:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/32-informations-manquantes-sur-les-contacts/CodeSystem-eclaire-type-contact-code-system.xlsx
+++ b/ig/32-informations-manquantes-sur-les-contacts/CodeSystem-eclaire-type-contact-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-18T08:18:00+00:00</t>
+    <t>2023-10-03T18:09:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/32-informations-manquantes-sur-les-contacts/CodeSystem-eclaire-type-contact-code-system.xlsx
+++ b/ig/32-informations-manquantes-sur-les-contacts/CodeSystem-eclaire-type-contact-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T18:09:23+00:00</t>
+    <t>2023-10-04T06:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/32-informations-manquantes-sur-les-contacts/CodeSystem-eclaire-type-contact-code-system.xlsx
+++ b/ig/32-informations-manquantes-sur-les-contacts/CodeSystem-eclaire-type-contact-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T06:13:04+00:00</t>
+    <t>2023-10-04T13:32:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
